--- a/Sample/文法問題_test2.xlsx
+++ b/Sample/文法問題_test2.xlsx
@@ -662,13 +662,9 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -1577,7 +1573,7 @@
       <x:c r="B27" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C27" s="1" t="s">
+      <x:c r="C27" s="0" t="s">
         <x:v>158</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
@@ -1600,7 +1596,7 @@
       <x:c r="B28" s="0" t="s">
         <x:v>164</x:v>
       </x:c>
-      <x:c r="C28" s="1" t="s">
+      <x:c r="C28" s="0" t="s">
         <x:v>165</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
@@ -1623,7 +1619,7 @@
       <x:c r="B29" s="0" t="s">
         <x:v>170</x:v>
       </x:c>
-      <x:c r="C29" s="1" t="s">
+      <x:c r="C29" s="0" t="s">
         <x:v>171</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
@@ -1646,7 +1642,7 @@
       <x:c r="B30" s="0" t="s">
         <x:v>176</x:v>
       </x:c>
-      <x:c r="C30" s="1" t="s">
+      <x:c r="C30" s="0" t="s">
         <x:v>177</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
@@ -1669,7 +1665,7 @@
       <x:c r="B31" s="0" t="s">
         <x:v>182</x:v>
       </x:c>
-      <x:c r="C31" s="1" t="s">
+      <x:c r="C31" s="0" t="s">
         <x:v>183</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">

--- a/Sample/文法問題_test2.xlsx
+++ b/Sample/文法問題_test2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <x:si>
     <x:t>Question</x:t>
   </x:si>
@@ -538,9 +538,6 @@
     <x:t>Processor Kalu's guide to writing buiness ----- is considered by many to be the most autoritative text on the topic.</x:t>
   </x:si>
   <x:si>
-    <x:t>correspondence</x:t>
-  </x:si>
-  <x:si>
     <x:t>writing の目的語がかけている
 bussines correspondence</x:t>
   </x:si>
@@ -551,19 +548,22 @@
     <x:t>correspondingly</x:t>
   </x:si>
   <x:si>
+    <x:t>correspondence</x:t>
+  </x:si>
+  <x:si>
     <x:t>corresponded</x:t>
   </x:si>
   <x:si>
     <x:t>In oder to ----- fo a discount, a customer's total purchase must exceed $100 and be made via our Web site.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qualify</x:t>
   </x:si>
   <x:si>
     <x:t>空欄直後にforがあり後ろにdiscountと続いている
 意味から推測</x:t>
   </x:si>
   <x:si>
+    <x:t>qualify</x:t>
+  </x:si>
+  <x:si>
     <x:t>validate</x:t>
   </x:si>
   <x:si>
@@ -574,9 +574,6 @@
   </x:si>
   <x:si>
     <x:t>----- the reduction in the department's quarterly budget, the plan to renovate the offices is no longer viable.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Given</x:t>
   </x:si>
   <x:si>
     <x:t>the reductionという名詞句があるので名詞句をつなぐ前置詞が必要
@@ -589,6 +586,9 @@
     <x:t>Now that</x:t>
   </x:si>
   <x:si>
+    <x:t>Given</x:t>
+  </x:si>
+  <x:si>
     <x:t>Assuming that</x:t>
   </x:si>
   <x:si>
@@ -596,9 +596,6 @@
   </x:si>
   <x:si>
     <x:t>Ms. Veron was commended for her outstanding interpersonal skills and her ----- for problem solving.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aptitude</x:t>
   </x:si>
   <x:si>
     <x:t>文意から推測
@@ -612,6 +609,28 @@
   </x:si>
   <x:si>
     <x:t>finalization</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aptitude</x:t>
+  </x:si>
+  <x:si>
+    <x:t>At evening the four friends came to a wood, where they stopped for the night.
+The donkey and the dog lay down under a large tree.
+The cat climbed up on one of the branches.
+The cock flew to the very top of the tree, where he felt quite safe.
+From his perch on the top of the tree the cock saw a light.
+Calling to his friends, he said, "We are not far from a house. I can see a light."
+"Let us go on," said the donkey, "for it may be just the house for us."
+As they drew near, the light grew larger and brighter.
+At last they could see that it came from the window of a robber's house.t evening the four friends came to a wood, where they stopped for the night.
+The donkey, who was the tallest, went up and looked in.
+"What do you see, old Long Ears?" asked the cock.
+"What do I see?" answered the donkey. "Why, a table spread with plenty to eat and drink, and the robbers having their supper."
+"We should be there, too, if we had our rights," said the cock.
+"Ah, yes," said the donkey; "if we could only get inside."
+Then the four friends talked over what they had better do in order to drive the robbers out of the house.
+At last they hit upon a plan.
+The donkey stood upon his hind legs and placed his front feet on the window sill.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -662,9 +681,13 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -962,7 +985,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G33"/>
+  <x:dimension ref="A1:G32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1594,19 +1617,19 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
         <x:v>164</x:v>
       </x:c>
-      <x:c r="C28" s="0" t="s">
+      <x:c r="D28" s="0" t="s">
         <x:v>165</x:v>
       </x:c>
-      <x:c r="D28" s="0" t="s">
+      <x:c r="E28" s="0" t="s">
         <x:v>166</x:v>
       </x:c>
-      <x:c r="E28" s="0" t="s">
+      <x:c r="F28" s="0" t="s">
         <x:v>167</x:v>
-      </x:c>
-      <x:c r="F28" s="0" t="s">
-        <x:v>164</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
         <x:v>168</x:v>
@@ -1617,13 +1640,13 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
         <x:v>170</x:v>
       </x:c>
-      <x:c r="C29" s="0" t="s">
+      <x:c r="D29" s="0" t="s">
         <x:v>171</x:v>
-      </x:c>
-      <x:c r="D29" s="0" t="s">
-        <x:v>170</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
         <x:v>172</x:v>
@@ -1640,16 +1663,16 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
         <x:v>176</x:v>
       </x:c>
-      <x:c r="C30" s="0" t="s">
+      <x:c r="D30" s="0" t="s">
         <x:v>177</x:v>
       </x:c>
-      <x:c r="D30" s="0" t="s">
+      <x:c r="E30" s="0" t="s">
         <x:v>178</x:v>
-      </x:c>
-      <x:c r="E30" s="0" t="s">
-        <x:v>176</x:v>
       </x:c>
       <x:c r="F30" s="0" t="s">
         <x:v>179</x:v>
@@ -1663,22 +1686,27 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
         <x:v>182</x:v>
       </x:c>
-      <x:c r="C31" s="0" t="s">
+      <x:c r="D31" s="0" t="s">
         <x:v>183</x:v>
       </x:c>
-      <x:c r="D31" s="0" t="s">
+      <x:c r="E31" s="0" t="s">
         <x:v>184</x:v>
       </x:c>
-      <x:c r="E31" s="0" t="s">
+      <x:c r="F31" s="0" t="s">
         <x:v>185</x:v>
       </x:c>
-      <x:c r="F31" s="0" t="s">
+      <x:c r="G31" s="0" t="s">
         <x:v>186</x:v>
       </x:c>
-      <x:c r="G31" s="0" t="s">
-        <x:v>182</x:v>
+    </x:row>
+    <x:row r="32" spans="1:7">
+      <x:c r="A32" s="1" t="s">
+        <x:v>187</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
